--- a/Running projects/Food Court North Walk/327-328 Bill for exhaust and ventilation work at gym area.xlsx
+++ b/Running projects/Food Court North Walk/327-328 Bill for exhaust and ventilation work at gym area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Food Court North Walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Food Court North Walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9EFEB-113D-4E7A-ABD6-DCC7A4B3080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9269DC4-FBF7-4AB4-BD9A-0A91090CC377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="327 supply" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>iii</t>
   </si>
   <si>
-    <t>Bill for Supply of Material for Exhaust and Ventilation work at Gym Area North Walk Shopping mall.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -321,13 +318,16 @@
     <t>Installation of Fresh intake Louvers</t>
   </si>
   <si>
-    <t>Bill for Installation of Material for Exhaust and Ventilation work at Gym Area North Walk Shopping mall.</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Bill for Installation of Material for Exhaust and Ventilation work at Atmosphere gym North Walk Shopping mall.</t>
+  </si>
+  <si>
+    <t>Bill for Supply of Material for Exhaust and Ventilation work at Atmosphere gym North Walk Shopping mall.</t>
   </si>
 </sst>
 </file>
@@ -790,10 +790,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142633</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18808</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781292" cy="600075"/>
     <xdr:pic>
@@ -823,7 +823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142633" y="8429625"/>
+          <a:off x="9277108" y="8372475"/>
           <a:ext cx="781292" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -835,14 +835,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
@@ -861,7 +861,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1114425" y="381000"/>
+          <a:off x="9124950" y="381000"/>
           <a:ext cx="4362450" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,14 +938,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923926</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:to>
@@ -971,7 +971,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="304800" y="180974"/>
+          <a:off x="8315325" y="180974"/>
           <a:ext cx="857251" cy="742949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -995,10 +995,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>218833</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190258</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>542926</xdr:rowOff>
+      <xdr:rowOff>533401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="743192" cy="628649"/>
     <xdr:pic>
@@ -1028,7 +1028,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="218833" y="9525001"/>
+          <a:off x="9334258" y="9515476"/>
           <a:ext cx="743192" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1040,16 +1040,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1066,8 +1066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1304925" y="314325"/>
-          <a:ext cx="4362450" cy="628649"/>
+          <a:off x="9439275" y="809625"/>
+          <a:ext cx="4219575" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,16 +1143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>933451</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1176,7 +1176,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="495300" y="38099"/>
+          <a:off x="8629650" y="533399"/>
           <a:ext cx="857251" cy="819149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>12</v>
@@ -1624,10 +1624,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D18" s="16">
         <v>128</v>
@@ -1645,10 +1645,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="16">
         <v>32</v>
@@ -1681,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>23</v>
       </c>
       <c r="D21" s="16">
         <v>4</v>
@@ -1702,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
@@ -1723,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="16">
         <v>22</v>
@@ -1744,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="16">
         <v>30</v>
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="16">
         <v>4</v>
@@ -1786,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="26">
         <v>4</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -1862,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD173B3D-EDC2-4F8E-9379-236B85D4AE63}">
   <dimension ref="A6:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="14" spans="1:6" s="35" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="15" spans="1:6" s="21" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="E15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="F15" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="21" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="16">
         <v>4</v>
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2023,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D18" s="16">
         <v>128</v>
@@ -2044,10 +2044,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="16">
         <v>32</v>
@@ -2065,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
@@ -2080,10 +2080,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>23</v>
       </c>
       <c r="D21" s="16">
         <v>4</v>
@@ -2101,10 +2101,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
@@ -2122,10 +2122,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="16">
         <v>22</v>
@@ -2143,10 +2143,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="16">
         <v>30</v>
@@ -2185,10 +2185,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="43">
         <v>4</v>
@@ -2206,10 +2206,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="43">
         <v>4</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="29" spans="1:6" s="39" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="31" spans="1:6" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
